--- a/form_data.xlsx
+++ b/form_data.xlsx
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
